--- a/code/gsr_data_sharedreward.xlsx
+++ b/code/gsr_data_sharedreward.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Task-sharedreward_Level-Run_gsr" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">run</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>gsr_y</t>
+  </si>
+  <si>
+    <t>tsnr</t>
+  </si>
+  <si>
+    <t>fd_mean</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -82,6 +97,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -108,11 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,861 +155,861 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.46"/>
+    <col min="1" max="1" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="8.28515625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.0382036976516247</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>67.1931466470705</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.130454339881353</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="A2" s="0">
         <v>1001</v>
       </c>
+      <c r="B2" s="0">
+        <v>0.038030151277780533</v>
+      </c>
+      <c r="C2" s="0">
+        <v>66.210534871963318</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.13808349037630652</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0378566049039364</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>65.2279230968561</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.14571264087126</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1001</v>
+      <c r="A3" s="0">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.016225872561335564</v>
+      </c>
+      <c r="C3" s="0">
+        <v>43.035774230957031</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.25039148452970378</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0162258725613356</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>43.035774230957</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.250391484529704</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1003</v>
+      <c r="A4" s="0">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.04569125734269619</v>
+      </c>
+      <c r="C4" s="0">
+        <v>68.2174072265625</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.13628978506374351</v>
+      </c>
+      <c r="E4" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.0449479445815086</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>69.3474884033203</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.137838736010083</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1004</v>
+      <c r="A5" s="0">
+        <v>1006</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.028959948569536209</v>
+      </c>
+      <c r="C5" s="0">
+        <v>88.372066497802734</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.10480758862731773</v>
+      </c>
+      <c r="E5" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0464345701038837</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>67.0873260498047</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.134740834117404</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1004</v>
+      <c r="A6" s="0">
+        <v>1009</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.028400488197803497</v>
+      </c>
+      <c r="C6" s="0">
+        <v>93.125114440917969</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.14076593993207334</v>
+      </c>
+      <c r="E6" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.0290957391262054</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>84.4646224975586</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.105446399911383</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1006</v>
+      <c r="A7" s="0">
+        <v>1010</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.025944962166249752</v>
+      </c>
+      <c r="C7" s="0">
+        <v>60.331729888916016</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.194793798494099</v>
+      </c>
+      <c r="E7" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.028824158012867</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>92.2795104980469</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.104168777343252</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1006</v>
+      <c r="A8" s="0">
+        <v>1011</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.017423057928681374</v>
+      </c>
+      <c r="C8" s="0">
+        <v>50.794780731201172</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.25387660611318463</v>
+      </c>
+      <c r="E8" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.0281226392835379</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>93.1295318603516</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.145604355224032</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1009</v>
+      <c r="A9" s="0">
+        <v>1012</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.012924143113195896</v>
+      </c>
+      <c r="C9" s="0">
+        <v>99.764072418212891</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.12804980042879605</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.0286783371120691</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>93.1206970214844</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.135927524640115</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1009</v>
+      <c r="A10" s="0">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.015654955059289932</v>
+      </c>
+      <c r="C10" s="0">
+        <v>96.889904022216797</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.082633372002519523</v>
+      </c>
+      <c r="E10" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.0245680436491966</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>45.0850143432617</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.242804895387899</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1010</v>
+      <c r="A11" s="0">
+        <v>1015</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.016640529036521912</v>
+      </c>
+      <c r="C11" s="0">
+        <v>88.483707427978516</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.16135518337617316</v>
+      </c>
+      <c r="E11" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.0273218806833029</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>75.5784454345703</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.146782701600299</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1010</v>
+      <c r="A12" s="0">
+        <v>1016</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.029625068418681622</v>
+      </c>
+      <c r="C12" s="0">
+        <v>82.738788604736328</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.10610581503725319</v>
+      </c>
+      <c r="E12" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.0168417356908321</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>58.8297271728516</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.168399023895867</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1011</v>
+      <c r="A13" s="0">
+        <v>1019</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.015413386281579733</v>
+      </c>
+      <c r="C13" s="0">
+        <v>81.160514831542969</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.15777367986300411</v>
+      </c>
+      <c r="E13" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.0180043801665306</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>42.7598342895508</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.339354188330503</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1011</v>
+      <c r="A14" s="0">
+        <v>1021</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.015563314780592918</v>
+      </c>
+      <c r="C14" s="0">
+        <v>72.795940399169922</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.18372803464365683</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.0129109118133783</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>99.1313629150391</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.133455772410628</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1012</v>
+      <c r="A15" s="0">
+        <v>1242</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.014694612938910723</v>
+      </c>
+      <c r="C15" s="0">
+        <v>63.074699401855469</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.09275722032152553</v>
+      </c>
+      <c r="E15" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.0129373744130135</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>100.396781921387</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.122643828446964</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1012</v>
+      <c r="A16" s="0">
+        <v>1243</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.01066385954618454</v>
+      </c>
+      <c r="C16" s="0">
+        <v>68.444980621337891</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.32471816725206537</v>
+      </c>
+      <c r="E16" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.0155799817293882</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>94.7373123168945</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.0907818344291085</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1013</v>
+      <c r="A17" s="0">
+        <v>1244</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.030075129121541977</v>
+      </c>
+      <c r="C17" s="0">
+        <v>74.61908822087571</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.21277474002997682</v>
+      </c>
+      <c r="E17" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.0157299283891916</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>99.0424957275391</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.0744849095759306</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1013</v>
+      <c r="A18" s="0">
+        <v>1248</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.022848339751362801</v>
+      </c>
+      <c r="C18" s="0">
+        <v>88.439699827809818</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.11202292190772617</v>
+      </c>
+      <c r="E18" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.016768965870142</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>88.4870071411133</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.16883187003468</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1015</v>
+      <c r="A19" s="0">
+        <v>1249</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.027252675965428352</v>
+      </c>
+      <c r="C19" s="0">
+        <v>49.59211540222168</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.29461244790081081</v>
+      </c>
+      <c r="E19" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.0165120922029018</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>88.4804077148437</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.153878496717666</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1015</v>
+      <c r="A20" s="0">
+        <v>1251</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.025091134943068027</v>
+      </c>
+      <c r="C20" s="0">
+        <v>84.962398529052734</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.065271187557704169</v>
+      </c>
+      <c r="E20" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.0343905724585056</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>83.3120956420899</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.102711491778663</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1016</v>
+      <c r="A21" s="0">
+        <v>1253</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.013015984557569027</v>
+      </c>
+      <c r="C21" s="0">
+        <v>46.822868347167969</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.36047335811256576</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.0248595643788576</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>82.1654815673828</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.109500138295843</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1016</v>
+      <c r="A22" s="0">
+        <v>1255</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.022334492765367031</v>
+      </c>
+      <c r="C22" s="0">
+        <v>76.781715393066406</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.15878910755906184</v>
+      </c>
+      <c r="E22" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.015428589656949</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>80.0931625366211</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0.165065212484214</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1019</v>
+      <c r="A23" s="0">
+        <v>1276</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.014184590429067612</v>
+      </c>
+      <c r="C23" s="0">
+        <v>77.639183044433594</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.13996835830195381</v>
+      </c>
+      <c r="E23" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0.0153981829062104</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>82.2278671264649</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.150482147241794</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1019</v>
+      <c r="A24" s="0">
+        <v>1282</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.0084181898273527622</v>
+      </c>
+      <c r="C24" s="0">
+        <v>93.605941772460938</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.08252029556900467</v>
+      </c>
+      <c r="E24" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.0156034491956234</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>66.2899551391602</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.201697619975973</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1021</v>
+      <c r="A25" s="0">
+        <v>1286</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.0099868723191320896</v>
+      </c>
+      <c r="C25" s="0">
+        <v>59.563938140869141</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.12565082738858332</v>
+      </c>
+      <c r="E25" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0.0155231803655624</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>79.3019256591797</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.16575844931134</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1021</v>
+      <c r="A26" s="0">
+        <v>1294</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.026398200541734695</v>
+      </c>
+      <c r="C26" s="0">
+        <v>63.829170227050781</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.12657787709391971</v>
+      </c>
+      <c r="E26" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.0116219418123364</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>56.8723754882813</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.0982717055397021</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1242</v>
+      <c r="A27" s="0">
+        <v>1300</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.015390469692647457</v>
+      </c>
+      <c r="C27" s="0">
+        <v>16.604353904724121</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1.6986919376727352</v>
+      </c>
+      <c r="E27" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.017767284065485</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>69.2770233154297</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.087242735103349</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1242</v>
+      <c r="A28" s="0">
+        <v>1301</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.01889759860932827</v>
+      </c>
+      <c r="C28" s="0">
+        <v>63.079113006591797</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.22204033803093015</v>
+      </c>
+      <c r="E28" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.0109340064227581</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>64.2496490478516</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.324654591172861</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1243</v>
+      <c r="A29" s="0">
+        <v>1302</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.02693729754537344</v>
+      </c>
+      <c r="C29" s="0">
+        <v>79.445213317871094</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.12753660064602088</v>
+      </c>
+      <c r="E29" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.010393712669611</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>72.6403121948242</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0.32478174333127</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1243</v>
+      <c r="A30" s="0">
+        <v>1303</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.016280132345855236</v>
+      </c>
+      <c r="C30" s="0">
+        <v>73.575813293457031</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.1389377904050858</v>
+      </c>
+      <c r="E30" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.0301744714379311</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>68.2074528699741</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0.217548975707373</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1244</v>
+      <c r="A31" s="0">
+        <v>3116</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.028305274434387684</v>
+      </c>
+      <c r="C31" s="0">
+        <v>61.129617691040039</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.2448454750865906</v>
+      </c>
+      <c r="E31" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.0299757868051529</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>81.0307235717773</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.208000504352581</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1244</v>
+      <c r="A32" s="0">
+        <v>3122</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.01383584551513195</v>
+      </c>
+      <c r="C32" s="0">
+        <v>71.745925903320312</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.11558337783500508</v>
+      </c>
+      <c r="E32" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.0256781280040741</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>85.5947545750532</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.103910834011025</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1248</v>
+      <c r="A33" s="0">
+        <v>3125</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.019706633873283863</v>
+      </c>
+      <c r="C33" s="0">
+        <v>57.677314758300781</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.28319724376076338</v>
+      </c>
+      <c r="E33" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.0200185514986515</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>91.2846450805664</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.120135009804428</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1248</v>
+      <c r="A34" s="0">
+        <v>3140</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.021387498825788498</v>
+      </c>
+      <c r="C34" s="0">
+        <v>86.776172637939453</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.15252771241069607</v>
+      </c>
+      <c r="E34" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.0280350130051374</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>39.155143737793</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0.341084740387184</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1249</v>
+      <c r="A35" s="0">
+        <v>3143</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.024316716939210892</v>
+      </c>
+      <c r="C35" s="0">
+        <v>54.895509719848633</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.16425410681733937</v>
+      </c>
+      <c r="E35" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.0264703389257193</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>60.0290870666504</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0.248140155414438</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1249</v>
+      <c r="A36" s="0">
+        <v>3152</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.01901522371917963</v>
+      </c>
+      <c r="C36" s="0">
+        <v>49.083370208740234</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.32723532864171168</v>
+      </c>
+      <c r="E36" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.0237438250333071</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>91.0381927490234</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0.0595553152610877</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1251</v>
+      <c r="A37" s="0">
+        <v>3166</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.025436071678996086</v>
+      </c>
+      <c r="C37" s="0">
+        <v>76.929893493652344</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.14643035946431227</v>
+      </c>
+      <c r="E37" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.026438444852829</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>78.886604309082</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0.0709870598543206</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1251</v>
+      <c r="A38" s="0">
+        <v>3167</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.025070381350815296</v>
+      </c>
+      <c r="C38" s="0">
+        <v>83.693885803222656</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.20326929463705889</v>
+      </c>
+      <c r="E38" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0.013015984557569</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>46.822868347168</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.360473358112566</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1253</v>
+      <c r="A39" s="0">
+        <v>3170</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.013741702307015657</v>
+      </c>
+      <c r="C39" s="0">
+        <v>90.454299926757812</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.085730132127555619</v>
+      </c>
+      <c r="E39" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.0225602891296148</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>82.7007293701172</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.154842291251705</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1255</v>
+      <c r="A40" s="0">
+        <v>3173</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.021810699254274368</v>
+      </c>
+      <c r="C40" s="0">
+        <v>75.693443298339844</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.091589957388955173</v>
+      </c>
+      <c r="E40" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.0221086964011192</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>70.8627014160156</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.162735923866419</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1255</v>
+      <c r="A41" s="0">
+        <v>3176</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.017223171889781952</v>
+      </c>
+      <c r="C41" s="0">
+        <v>78.326725006103516</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.20050349073664567</v>
+      </c>
+      <c r="E41" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.0143868438899517</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>83.1831436157227</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.152684068911854</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1276</v>
+      <c r="A42" s="0">
+        <v>3189</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.014995717443525791</v>
+      </c>
+      <c r="C42" s="0">
+        <v>83.999310433922801</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.11299222261117037</v>
+      </c>
+      <c r="E42" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.0139823369681835</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>72.0952224731445</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0.127252647692054</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1276</v>
+      <c r="A43" s="0">
+        <v>3190</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0.022692452184855938</v>
+      </c>
+      <c r="C43" s="0">
+        <v>70.474162281316239</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.15051523152651022</v>
+      </c>
+      <c r="E43" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.00829269737005234</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>95.707878112793</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.0816831277957432</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1282</v>
+      <c r="A44" s="0">
+        <v>3199</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.021943985484540462</v>
+      </c>
+      <c r="C44" s="0">
+        <v>75.073936462402344</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.15331446134433674</v>
+      </c>
+      <c r="E44" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.00854368228465319</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>91.5040054321289</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.0833574633422661</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1282</v>
+      <c r="A45" s="0">
+        <v>3200</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0.028193640522658825</v>
+      </c>
+      <c r="C45" s="0">
+        <v>82.519496917724609</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.13517464081643304</v>
+      </c>
+      <c r="E45" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.0084587587043643</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>60.7391052246094</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.125184910126608</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1286</v>
+      <c r="A46" s="0">
+        <v>3206</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.022728324867784977</v>
+      </c>
+      <c r="C46" s="0">
+        <v>69.889537811279297</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.14217373910974285</v>
+      </c>
+      <c r="E46" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.0115149859338999</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>58.3887710571289</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0.126116744650559</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1286</v>
+      <c r="A47" s="0">
+        <v>3210</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.016603714786469936</v>
+      </c>
+      <c r="C47" s="0">
+        <v>36.576229095458984</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0.50474320535194228</v>
+      </c>
+      <c r="E47" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.0285991057753563</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>56.4268646240234</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.131966957531186</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1294</v>
+      <c r="A48" s="0">
+        <v>3212</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0.010425801388919353</v>
+      </c>
+      <c r="C48" s="0">
+        <v>91.831180572509766</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0.05578065576446406</v>
+      </c>
+      <c r="E48" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.0241972953081131</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>71.2314758300781</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0.121188796656654</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1294</v>
+      <c r="A49" s="0">
+        <v>3218</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0.0217713862657547</v>
+      </c>
+      <c r="C49" s="0">
+        <v>39.308231353759766</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.38132145396973011</v>
+      </c>
+      <c r="E49" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0.0160654131323099</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>16.3253612518311</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1.98505234915595</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1300</v>
+      <c r="A50" s="0">
+        <v>3220</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0.030016245320439339</v>
+      </c>
+      <c r="C50" s="0">
+        <v>79.540267944335938</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0.17356737476100384</v>
+      </c>
+      <c r="E50" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,10 +1812,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
